--- a/biology/Zoologie/Desoria/Desoria.xlsx
+++ b/biology/Zoologie/Desoria/Desoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desoria est un genre de collemboles de la famille des Isotomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 2 septembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 2 septembre 2019) :
 Desoria ahiehie Christiansen &amp; Bellinger, 1992
 Desoria alaskensis Fjellberg, 1978
 Desoria albella (Packard, 1873)
@@ -641,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Pierre Jean Édouard Desor[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Pierre Jean Édouard Desor.
 </t>
         </is>
       </c>
@@ -672,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Desor, 1841 : Excursions et séjour de M. Agassiz sur la mer de glace du Lauteraar et du Finsteraar, en société de plusieurs naturalistes. Bibliothèque Universelle de Genève, Nouvelle Série, vol. 32, p. 116-172 &amp; 359-399.</t>
         </is>
